--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.35/avg_0.004_scores.xlsx
@@ -97,25 +97,25 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>love</t>
@@ -1119,25 +1119,25 @@
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.7631578947368421</v>
+        <v>0.7612732095490716</v>
       </c>
       <c r="L11">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>54</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1169,25 +1169,25 @@
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.7612732095490716</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>293</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,25 +1195,25 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1273,25 +1273,25 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.6840490797546013</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L16">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>237</v>
+        <v>60</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1299,25 +1299,25 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.6588235294117647</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="M17">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="10:17">
